--- a/graphs/Topic_modeling/lsa_topics_gensim.xlsx
+++ b/graphs/Topic_modeling/lsa_topics_gensim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,7 +506,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>- (0.43), chicken (0.40), one (-0.28), place (0.21), taste (-0.20)</t>
+          <t>- (-0.43), chicken (-0.40), one (0.28), place (-0.21), taste (0.20)</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>service (0.54), great (0.34), ordered (-0.29), taste (-0.22), food (-0.21)</t>
+          <t>service (-0.54), great (-0.34), ordered (0.29), taste (0.22), food (0.21)</t>
         </is>
       </c>
     </row>
@@ -578,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>one (0.46), veg (-0.37), biryani (-0.27), taste (-0.26), chicken (0.23)</t>
+          <t>one (-0.46), veg (0.37), biryani (0.27), taste (0.26), chicken (-0.23)</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ordered (0.39), veg (0.32), great (-0.30), service (0.27), time (-0.21)</t>
+          <t>ordered (-0.39), veg (-0.32), great (0.30), service (-0.27), time (0.21)</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>taste (-0.60), biryani (0.39), really (0.32), great (0.30), service (-0.28)</t>
+          <t>taste (-0.60), biryani (0.39), really (0.32), great (0.29), service (-0.28)</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>one (-0.34), restaurant (0.32),  (0.31), try (0.29), really (-0.28)</t>
+          <t>one (0.34), restaurant (-0.32),  (-0.32), try (-0.29), really (0.29)</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> (0.43), nice (-0.37), like (0.32), veg (0.25), ordered (-0.19)</t>
+          <t xml:space="preserve"> (-0.42), nice (0.37), like (-0.32), veg (-0.25), ordered (0.19)</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ambience (0.42),  (0.38), also (-0.35), nice (0.34), staff (0.19)</t>
+          <t>ambience (-0.42),  (-0.38), also (0.35), nice (-0.34), staff (-0.19)</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>restaurant (0.45), also (-0.37), time (-0.31), nice (0.28), us (-0.21)</t>
+          <t>restaurant (0.45), also (-0.37), time (-0.30), nice (0.28), us (-0.21)</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>like (-0.46), ambience (0.31), nice (-0.30), best (-0.25), staff (0.22)</t>
+          <t>like (-0.46), ambience (0.30), nice (-0.30), best (-0.25), staff (0.22)</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>time (0.43), order (-0.37), ambience (0.30), like (0.28), staff (-0.25)</t>
+          <t>time (0.44), order (-0.37), ambience (0.29), like (0.28), staff (-0.25)</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>best (-0.57), one (0.38), well (-0.19), pizza (-0.17),  (0.17)</t>
+          <t>best (-0.57), one (0.37), well (-0.20), pizza (-0.17),  (0.17)</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>staff (-0.38), veg (-0.30), visit (-0.22), starters (0.21), like (-0.20)</t>
+          <t>staff (0.39), veg (0.30), visit (0.23), starters (-0.21), like (0.20)</t>
         </is>
       </c>
     </row>
@@ -770,7 +770,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ambience (0.39), order (0.26), well (-0.23), paneer (0.23), rice (0.20)</t>
+          <t>ambience (-0.39), order (-0.26), well (0.23), paneer (-0.23), rice (-0.20)</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>experience (-0.29), ice (0.28), would (-0.28), cream (0.27), ambience (0.23)</t>
+          <t>experience (0.30), ice (-0.29), would (0.28), cream (-0.27), ambience (-0.23)</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>try (-0.34), would (0.29), visit (0.29), order (0.28), us (-0.28)</t>
+          <t>try (0.34), visit (-0.29), would (-0.29), order (-0.28), us (0.28)</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>staff (0.38), would (-0.31), fried (-0.25), like (0.24), experience (-0.21)</t>
+          <t>staff (0.38), would (-0.31), fried (-0.25), like (0.23), experience (-0.22)</t>
         </is>
       </c>
     </row>
@@ -818,7 +818,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>staff (0.37), veg (-0.30), rice (0.24), paneer (0.23), ambience (-0.19)</t>
+          <t>staff (-0.37), veg (0.30), rice (-0.24), paneer (-0.24), ambience (0.19)</t>
         </is>
       </c>
     </row>
@@ -830,7 +830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>paneer (-0.41), restaurant (-0.24), amazing (-0.23), ice (-0.22), cream (-0.22)</t>
+          <t>paneer (0.40), restaurant (0.25), amazing (0.23), ice (0.22), cream (0.22)</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>would (-0.52), visit (0.32), amazing (0.27), staff (-0.21), experience (0.19)</t>
+          <t>would (-0.52), visit (0.32), amazing (0.24), staff (-0.20), experience (0.20)</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>amazing (-0.40), cake (0.32), well (0.27), chocolate (0.26), staff (0.19)</t>
+          <t>amazing (-0.42), cake (0.31), well (0.28), chocolate (0.25), staff (0.18)</t>
         </is>
       </c>
     </row>
@@ -866,7 +866,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>visit (-0.53), amazing (0.32), buffet (-0.21), us (-0.17), paneer (-0.17)</t>
+          <t>visit (-0.53), amazing (0.31), buffet (-0.22), us (-0.17), paneer (-0.17)</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>experience (-0.36), order (0.35), ice (-0.23), even (-0.22), starters (0.21)</t>
+          <t>experience (-0.35), order (0.35), ice (-0.23), even (-0.22), starters (0.22)</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>amazing (-0.29), quantity (-0.25), order (0.25), pizza (0.24), quality (-0.22)</t>
+          <t>amazing (0.29), quantity (0.26), pizza (-0.25), order (-0.24), quality (0.23)</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>experience (-0.36), well (-0.26), cake (0.23), quality (-0.20), fish (0.19)</t>
+          <t>experience (-0.36), cake (0.25), well (-0.25), quality (-0.19), fish (0.17)</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>served (-0.53), 55 (0.29), 45 (0.17), amazing (-0.17), awesome (0.16)</t>
+          <t>served (-0.58), 55 (0.21), awesome (0.15), tasted (-0.14), experience (0.14)</t>
         </is>
       </c>
     </row>
@@ -938,7 +938,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>55 (-0.36), served (-0.27), amazing (0.25), quality (-0.23), 45 (-0.22)</t>
+          <t>55 (0.39), amazing (-0.30), 45 (0.25), quality (0.21), staff (0.18)</t>
         </is>
       </c>
     </row>
@@ -950,7 +950,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>fish (0.29), us (0.28), visit (-0.28), amazing (0.24), menu (0.20)</t>
+          <t>fish (-0.32), us (-0.28), visit (0.25), mandi (-0.20), amazing (-0.19)</t>
         </is>
       </c>
     </row>
@@ -962,7 +962,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>even (-0.46), experience (0.26), wings (-0.24), buffet (0.16), tried (-0.15)</t>
+          <t>even (-0.47), experience (0.26), wings (-0.24), buffet (0.16), indian (0.16)</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>buffet (-0.26), well (-0.25), even (-0.19), experience (0.17), dont (-0.17)</t>
+          <t>buffet (-0.26), well (-0.25), even (-0.21), experience (0.18), dont (-0.16)</t>
         </is>
       </c>
     </row>
@@ -986,7 +986,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>menu (-0.30), went (0.26), 55 (-0.21), even (0.17), 5 (0.16)</t>
+          <t>menu (-0.30), went (0.25), 55 (-0.22), us (-0.18), 5 (0.17)</t>
         </is>
       </c>
     </row>
@@ -998,7 +998,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>menu (0.26), prawns (0.26), awesome (-0.21), pizza (-0.18), tried (0.17)</t>
+          <t>menu (-0.26), prawns (-0.25), awesome (0.21), tried (-0.18), went (0.18)</t>
         </is>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>rice (0.31), awesome (0.28), even (-0.26), soup (-0.18), better (-0.18)</t>
+          <t>rice (-0.33), awesome (-0.27), even (0.26), soup (0.17), better (0.16)</t>
         </is>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>awesome (0.46), even (0.33), quality (-0.28), bad (-0.27), pizza (-0.15)</t>
+          <t>awesome (-0.44), even (-0.31), quality (0.27), bad (0.24), pizza (0.16)</t>
         </is>
       </c>
     </row>
@@ -1034,607 +1034,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>dish (-0.27), even (-0.26), go (0.25), burger (0.19), mandi (0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Topic 51</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>awesome (0.38), dish (0.23), love (0.20), quality (0.20), burger (0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Topic 52</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>zomato (0.34), quality (-0.31), 2 (0.18), awesome (-0.18), buffet (-0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Topic 53</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>dont (-0.37), menu (0.31), quality (0.24), tried (-0.19), awesome (-0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Topic 54</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>burger (-0.27), wings (-0.24), awesome (0.21), spicy (0.20), less (0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Topic 55</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>dishes (-0.25), awesome (0.23), went (-0.23), bad (0.20), tasted (0.20)</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Topic 56</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>spicy (0.26), dishes (-0.26), tasty (0.22), tried (-0.22), go (-0.21)</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Topic 57</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>bad (-0.26), went (-0.24), tasty (0.24), quality (-0.18), made (0.17)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Topic 58</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>zomato (0.42), gold (0.21), items (-0.20), served (0.19), tasted (-0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Topic 59</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>spicy (0.28), worst (-0.28), bad (0.26), go (-0.25), loved (-0.23)</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Topic 60</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>got (-0.30), friends (0.22), dont (0.20), pizza (-0.18), soup (-0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Topic 61</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>go (0.36), much (0.24), delicious (-0.23), must (0.20), ambiance (-0.19)</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Topic 62</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>much (0.29), tried (-0.22), tasty (0.22), spicy (-0.21), awesome (-0.19)</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Topic 63</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>go (-0.35), love (0.31), get (0.24), went (0.18), worst (0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Topic 64</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>pizza (-0.26), quantity (-0.21), even (-0.20), zomato (0.20), could (0.20)</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Topic 65</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>burger (0.24), get (-0.23), love (0.22), much (0.19), bad (-0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Topic 66</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>go (-0.28), dont (0.28), loved (0.24), tasted (-0.23), never (-0.21)</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>Topic 67</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>starters (0.21), spicy (0.20), u (-0.19), menu (0.18), love (-0.17)</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Topic 68</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>bad (0.24), love (0.23), friends (0.23), worst (-0.22), go (0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Topic 69</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>get (0.34), coffee (0.22), dont (0.20), went (0.19), u (-0.15)</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Topic 70</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>zomato (-0.25), tasty (0.24), bad (0.20), items (0.18), delicious (-0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Topic 71</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>tasty (0.22), special (-0.20), coffee (0.20), must (0.18), worst (0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Topic 72</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>bad (0.34), quality (-0.27), much (0.22), friends (-0.20), overall (-0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Topic 73</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>got (0.27), fish (0.21), worst (0.20), go (-0.19), overall (-0.19)</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Topic 74</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>tasty (0.27), soup (0.21), coffee (-0.19), cake (0.19), love (0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Topic 75</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>much (-0.33), wings (0.25), love (0.23), people (0.19), burger (-0.19)</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Topic 76</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>friends (0.32), chocolate (0.26), burger (0.25), loved (-0.18), tried (-0.17)</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>Topic 77</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>little (-0.27), tried (0.25), drinks (0.20), delicious (0.17), loved (-0.16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>Topic 78</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>definitely (0.24), quality (-0.24), indian (0.20), quantity (0.18), less (0.17)</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Topic 79</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>love (0.18), indian (0.17), never (-0.16), u (-0.16), get (-0.16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>Topic 80</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>better (0.22), decent (-0.20), love (0.18), didnt (-0.17), quality (-0.17)</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>Topic 81</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>chocolate (0.31), little (-0.28), spicy (0.21), cake (-0.19), tasted (-0.17)</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Topic 82</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>loved (0.25), burger (0.25), got (-0.25), tasted (-0.20), didnt (0.19)</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>Topic 83</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>friends (-0.24), dinner (0.19), made (-0.18), get (0.17), didnt (-0.17)</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Topic 84</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>items (0.25), went (-0.19), much (0.19), biriyani (0.18), ambiance (0.16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Topic 85</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>biriyani (0.25), 45 (-0.24), tried (0.18), money (0.17), 55 (0.16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>Topic 86</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>items (0.22), must (0.21), people (0.19), special (0.18), perfect (0.16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>Topic 87</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>lunch (-0.28), table (0.21), spicy (0.18), overall (-0.16), ambiance (0.16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>Topic 88</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>overall (0.21), u (0.19), must (0.18), 5 (0.18), fish (-0.16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>Topic 89</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>indian (0.27), hyderabad (-0.22), items (-0.18), tasted (0.17), north (0.16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>Topic 90</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>times (0.18), better (-0.18), worth (-0.16), overall (-0.16), definitely (-0.16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>Topic 91</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>delicious (0.24), better (0.23), ok (0.20), people (0.18), special (-0.17)</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>Topic 92</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>biriyani (0.19), dinner (0.18), got (0.18), ambiance (0.16), friendly (-0.16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>Topic 93</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>hyderabad (0.24), drinks (0.22), 45 (0.21), cheese (-0.18), overall (-0.17)</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>Topic 94</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>average (0.25), loved (0.24), delicious (-0.21), coffee (0.20), ok (0.20)</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>Topic 95</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>delivery (-0.25), lunch (0.20), ok (0.20), 5 (0.19), loved (-0.18)</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>Topic 96</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>quite (-0.29), worst (-0.18), mandi (0.17), lunch (0.17), u (-0.17)</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>Topic 97</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>5 (0.26), items (0.22), excellent (0.19), delivery (0.18), cheese (0.17)</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>Topic 98</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ok (0.22), table (-0.19), music (0.15), average (0.15), kebab (-0.14)</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>Topic 99</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>overall (0.22), money (0.19), people (0.19), price (-0.17), definitely (-0.16)</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>Topic 100</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>delivery (0.24), people (-0.19), never (0.18), ok (0.18), dishes (-0.16)</t>
+          <t>dish (-0.27), even (-0.26), go (0.24), burger (0.21), mandi (0.18)</t>
         </is>
       </c>
     </row>
